--- a/TestData/NewCallTest.xlsx
+++ b/TestData/NewCallTest.xlsx
@@ -18,67 +18,67 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
+    <t>Rem_Notes</t>
+  </si>
+  <si>
     <t>Call_Schedule</t>
   </si>
   <si>
+    <t>Rem_Sch_Date</t>
+  </si>
+  <si>
     <t>Remin_Min</t>
   </si>
   <si>
     <t>Remin_type</t>
   </si>
   <si>
-    <t>Rem_Notes</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
+    <t>15 Minutes</t>
+  </si>
+  <si>
+    <t>Via Email</t>
+  </si>
+  <si>
+    <t>Call 1 Added</t>
+  </si>
+  <si>
+    <t>30 Minutes</t>
+  </si>
+  <si>
+    <t>Via Text Message</t>
+  </si>
+  <si>
+    <t>Call 2 Added</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>15 Minutes</t>
-  </si>
-  <si>
-    <t>30 Minutes</t>
+    <t>03-Aug-2018 00:18</t>
   </si>
   <si>
     <t>45 Minutes</t>
   </si>
   <si>
+    <t>Call 3 Added</t>
+  </si>
+  <si>
+    <t>04-Aug-2018 00:18</t>
+  </si>
+  <si>
     <t>1 Hour</t>
   </si>
   <si>
-    <t>Via Email</t>
-  </si>
-  <si>
-    <t>Via Text Message</t>
-  </si>
-  <si>
-    <t>Call 1 Added</t>
-  </si>
-  <si>
-    <t>Call 2 Added</t>
-  </si>
-  <si>
-    <t>Call 3 Added</t>
-  </si>
-  <si>
     <t>Call 4 Added</t>
   </si>
   <si>
-    <t>Rem_Sch_Date</t>
-  </si>
-  <si>
-    <t>02-Aug-2018 00:18</t>
-  </si>
-  <si>
-    <t>01-Aug-2018 00:18</t>
-  </si>
-  <si>
-    <t>03-Aug-2018 00:18</t>
-  </si>
-  <si>
-    <t>04-Aug-2018 00:18</t>
+    <t>05-Aug-2018 00:18</t>
+  </si>
+  <si>
+    <t>06-Aug-2018 00:18</t>
   </si>
 </sst>
 </file>
@@ -413,100 +413,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
